--- a/Responsible AI Governance - Selected set of studies.xlsx
+++ b/Responsible AI Governance - Selected set of studies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/bat178_csiro_au/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bat178/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2472840A-5F1D-3243-956A-26B95E926704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456F6F2E-B6C5-9C4A-96D9-BC3E3435942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17340" xr2:uid="{F2DB6A3D-6C2C-1C4D-A2F4-FEE7B3C768BA}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="190">
-  <si>
-    <t>Paper-ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Title</t>
   </si>
@@ -51,9 +48,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>What is the State of Artificial Intelligence Governance Globally?</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     </r>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>On the Governance of Artificial Intelligence through Ethics Guidelines</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     </r>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>The Dark Sides of Artificial Intelligence: An Integrated AI Governance Framework for Public Administration</t>
   </si>
   <si>
@@ -199,9 +187,6 @@
       </rPr>
       <t>. The article concludes with theoretical implications and recommendations for public officers.</t>
     </r>
-  </si>
-  <si>
-    <t>A4</t>
   </si>
   <si>
     <t>Governing artificial intelligence: ethical, legal and technical opportunities and challenges</t>
@@ -267,16 +252,10 @@
     </r>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
     <t>Algorithms, data, and platforms: the diverse challenges of governing AI</t>
   </si>
   <si>
     <t>Artificial intelligence (AI) poses a set of interwoven challenges. A new general purpose technology likened to steam power or electricity, AI must first be clearly defined before considering its global governance. In this context, a useful definition is technology that uses advanced computation to perform at human cognitive capacity in some task area. Like electricity, AI cannot be governed in isolation, but in the context of a broader digital technology toolbox. Establishing national and community priorities on how to reap AI’s benefits, while managing its social and economic risks, will be an evolving debate. A fundamental driver of the development and deployment of AI tools, of the algorithms and data, are the dominant Digital Platform Firms (DPFs). Unless specifically regulated, DPF's set de facto rules for use of data and algorithms. That can shift the borderline between public and private, and result in priorities that differ from those of the public sector or civil society. Governance of AI and the toolbox is a critical component of national success in the coming decades, as governments recognize opportunities and geopolitical risks posed by the suite of technologies. However, AI pries open a Pandora's box of questions that sweep across the economy and society engaging diverse communities. Rather than strive towards global agreement on a single set of market and social rules, one must consider how to pursue objectives of interoperability amongst nations with quite different political economies. Even such limited agreements are complicated following the Russian invasion of Ukraine.</t>
-  </si>
-  <si>
-    <t>A6</t>
   </si>
   <si>
     <t>Ethical governance is essential to building trust in robotics and artificial intelligence systems</t>
@@ -360,9 +339,6 @@
     </r>
   </si>
   <si>
-    <t>A7</t>
-  </si>
-  <si>
     <t>Artificial Intelligence in Healthcare and Medicine: Promises, Ethical Challenges and Governance</t>
   </si>
   <si>
@@ -434,9 +410,6 @@
     </r>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>Policy brief: the creation of a G20 coordinating committee for the governance of artificial intelligence</t>
   </si>
   <si>
@@ -532,9 +505,6 @@
     </r>
   </si>
   <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>Governance of automated image analysis and artificial intelligence analytics in healthcare</t>
   </si>
   <si>
@@ -597,9 +567,6 @@
     </r>
   </si>
   <si>
-    <t>A10</t>
-  </si>
-  <si>
     <t xml:space="preserve">A governance model for the application of AI in health care </t>
   </si>
   <si>
@@ -653,9 +620,6 @@
     </r>
   </si>
   <si>
-    <t>A11</t>
-  </si>
-  <si>
     <t>The Switch, the Ladder, and the Matrix: Models for Classifying AI Systems</t>
   </si>
   <si>
@@ -682,9 +646,6 @@
     </r>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>Governing fiduciary relationships or building up a governance model for trust in AI? Review of healthcare as a socio-technical system</t>
   </si>
   <si>
@@ -766,9 +727,6 @@
     </r>
   </si>
   <si>
-    <t>A13</t>
-  </si>
-  <si>
     <t>Governing artificial intelligence in the media and communications sector</t>
   </si>
   <si>
@@ -868,9 +826,6 @@
     </r>
   </si>
   <si>
-    <t>A14</t>
-  </si>
-  <si>
     <t>The AI ESG protocol: Evaluating and disclosing the environment, social, and governance implications of artificial intelligence capabilities, assets, and activities</t>
   </si>
   <si>
@@ -930,9 +885,6 @@
     </r>
   </si>
   <si>
-    <t>A15</t>
-  </si>
-  <si>
     <t>Ethics and governance of trustworthy medical artificial intelligence</t>
   </si>
   <si>
@@ -1068,9 +1020,6 @@
     </r>
   </si>
   <si>
-    <t>A16</t>
-  </si>
-  <si>
     <t>From the “rush to ethics” to the “race for governance” in Artificial Intelligence</t>
   </si>
   <si>
@@ -1133,9 +1082,6 @@
     </r>
   </si>
   <si>
-    <t>A17</t>
-  </si>
-  <si>
     <t>Governing AI during a pandemic crisis: Initiatives at the EU level</t>
   </si>
   <si>
@@ -1218,9 +1164,6 @@
     </r>
   </si>
   <si>
-    <t>A18</t>
-  </si>
-  <si>
     <t>Human-centricity in AI governance: A systemic approach</t>
   </si>
   <si>
@@ -1316,9 +1259,6 @@
     </r>
   </si>
   <si>
-    <t>A19</t>
-  </si>
-  <si>
     <t>Governing artificial intelligence in China and the European Union: Comparing aims and promoting ethical outcomes</t>
   </si>
   <si>
@@ -1381,9 +1321,6 @@
     </r>
   </si>
   <si>
-    <t>A20</t>
-  </si>
-  <si>
     <t>On the Development of AI Governance Frameworks</t>
   </si>
   <si>
@@ -1410,9 +1347,6 @@
     </r>
   </si>
   <si>
-    <t>A21</t>
-  </si>
-  <si>
     <t>Ethically governing artificial intelligence in the field of scientific research and innovation</t>
   </si>
   <si>
@@ -1457,9 +1391,6 @@
     </r>
   </si>
   <si>
-    <t>A22</t>
-  </si>
-  <si>
     <t>Governing AI in Electricity Systems: Reflections on the EU Artificial Intelligence Bill</t>
   </si>
   <si>
@@ -1522,9 +1453,6 @@
     </r>
   </si>
   <si>
-    <t>A23</t>
-  </si>
-  <si>
     <t>Governance of Ethical and Trustworthy Al Systems: Research Gaps in the ECCOLA Method</t>
   </si>
   <si>
@@ -1587,9 +1515,6 @@
     </r>
   </si>
   <si>
-    <t>A24</t>
-  </si>
-  <si>
     <t>Should Artificial Intelligence Governance be Centralised?: Design Lessons from History</t>
   </si>
   <si>
@@ -1616,9 +1541,6 @@
     </r>
   </si>
   <si>
-    <t>A25</t>
-  </si>
-  <si>
     <t>Artificial Discretion as a Tool of Governance: A Framework for Understanding the Impact of Artificial Intelligence on Public Administration</t>
   </si>
   <si>
@@ -1663,9 +1585,6 @@
     </r>
   </si>
   <si>
-    <t>A26</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1709,9 +1628,6 @@
     </r>
   </si>
   <si>
-    <t>A27</t>
-  </si>
-  <si>
     <t>Democratic Governance of Digital Platforms and Artificial Intelligence? Exploring Governance Models of China, the US, the EU and Mexico</t>
   </si>
   <si>
@@ -1738,9 +1654,6 @@
     </r>
   </si>
   <si>
-    <t>A28</t>
-  </si>
-  <si>
     <t>Steering the governance of artificial intelligence: national strategies in perspective</t>
   </si>
   <si>
@@ -1803,9 +1716,6 @@
     </r>
   </si>
   <si>
-    <t>A29</t>
-  </si>
-  <si>
     <t>Incorporating Stakeholder enfranchisement, Risks, Gains, and AI decisions in AI Governance Framework</t>
   </si>
   <si>
@@ -1850,9 +1760,6 @@
     </r>
   </si>
   <si>
-    <t>A30</t>
-  </si>
-  <si>
     <t>Role of the state and responsibility in governing artificial intelligence: a comparative analysis of AI strategies</t>
   </si>
   <si>
@@ -1897,43 +1804,28 @@
     </r>
   </si>
   <si>
-    <t>A31</t>
-  </si>
-  <si>
     <t>AI Governance and the Policymaking Process: Key Considerations for Reducing AI Risk</t>
   </si>
   <si>
     <t>This essay argues that a new subfield of AI governance should be explored that examines the policy-making process and its implications for AI governance. A growing number of researchers have begun working on the question of how to mitigate the catastrophic risks of transformative artificial intelligence, including what policies states should adopt. However, this essay identifies a preceding, meta-level problem of how the space of possible policies is affected by the politics and administrative mechanisms of how those policies are created and implemented. This creates a new set of key considerations for the field of AI governance and should influence the action of future policymakers. This essay examines some of the theories of the policymaking process, how they compare to current work in AI governance, and their implications for the field at large and ends by identifying areas of future research.</t>
   </si>
   <si>
-    <t>A32</t>
-  </si>
-  <si>
     <t>Towards Self-Regulating AI: Challenges and Opportunities of AI Model Governance in Financial Services</t>
   </si>
   <si>
     <t>AI systems have found a wide range of application areas in finan- cial services. Their involvement in broader and increasingly critical decisions has escalated the need for compliance and effective model governance. Current governance practices have evolved from more traditional financial applications and modeling frameworks. They often struggle with the fundamental differences in AI characteris- tics such as uncertainty in the assumptions, and the lack of explicit programming. AI model governance frequently involves complex review flows and relies heavily on manual steps. As a result, it faces serious challenges in effectiveness, cost, complexity, and speed. Furthermore, the unprecedented rate of growth in the AI model complexity raises questions on the sustainability of the current practices. This paper focuses on the challenges of AI model gover- nance in the financial services industry. As a part of the outlook, we present a system-level framework towards increased self-regulation for robustness and compliance. This approach aims to enable poten- tial solution opportunities through increased automation and the integration of monitoring, management, and mitigation capabilities. The proposed framework also provides model governance and risk management improved capabilities to manage model risk during deployment.</t>
   </si>
   <si>
-    <t>A33</t>
-  </si>
-  <si>
     <t>Machine Ethics: The Design and Governance of Ethical AI and Autonomous Systems [Scanning the Issue]</t>
   </si>
   <si>
     <t>The so-called fourth industrial revolution and its economic and societal implications are no longer solely an academic concern, but a matter for political as well as public debate. Characterized as the convergence of robotics, AI, autonomous systems and information technology – or cyberphysical systems – the fourth industrial revolution was the focus of the World Economic Forum, at Davos, in 2016 [1] . Also in 2016 the US White House initiated a series of public workshops on artificial intelligence (AI) and the creation of an interagency working group, and the European Parliament Committee for Legal Affairs published a draft report with recommendations to the Commission on Civil Law Rules on Robotics.</t>
   </si>
   <si>
-    <t>A34</t>
-  </si>
-  <si>
     <t>Conceptual and normative approaches to AI governance for a global digital ecosystem supportive of the UN Sustainable Development Goals (SDGs)</t>
   </si>
   <si>
     <t>AI governance is like one of those mythical creatures that everyone speaks of but which no one has seen. Sometimes, it is reduced to a list of shared principles such as transparency, non-discrimination, and sustainability; at other times, it is conflated with specific mechanisms for certification of algorithmic solutions or ways to protect the privacy of personal data. We suggest a conceptual and normative approach to AI governance in the context of a global digital public goods ecosystem to enable progress on the UN Sustainable Development Goals (SDGs). Conceptually, we propose rooting this approach in the human capability concept—what people are able to do and to be, and in a layered governance framework connecting the local to the global. Normatively, we suggest the following six irreducibles: a. human rights first; b. multi-stakeholder smart regulation; c. privacy and protection of personal data; d. a holistic approach to data use captured by the 3Ms—misuse of data, missed use of data and missing data; e. global collaboration (‘digital cooperation’); f. basing governance more in practice, in particular, thinking separately and together about data and algorithms. Throughout the article, we use examples from the health domain particularly in the current context of the Covid-19 pandemic. We conclude by arguing that taking a distributed but coordinated global digital commons approach to the governance of AI is the best guarantee of citizen-centered and societally beneficial use of digital technologies for the SDGs.</t>
-  </si>
-  <si>
-    <t>A35</t>
   </si>
   <si>
     <t xml:space="preserve">A principled governance for emerging AI regimes: lessons from China, the European Union, and the United States
@@ -1941,9 +1833,6 @@
   </si>
   <si>
     <t>Artificial intelligence (AI) governance is anticipated to have a transformative impact on humanity which has prompted researchers to analyze its implementation and use to ensure that the technology advances ethically and is beneficial for society. Though countries have begun to develop governance initiatives to regulate AI, the number of emerging AI regimes with an established structure is still relatively low. Meanwhile, the technology is advancing rapidly and has already caused harm inequitably to underrepresented communities. Thus, there is an urgent need to establish robust governance to mitigate the issues and risks attendant when deploying AI.While numerous ethics, principles, and structures have been recommended, this article intends to address the policy lag by providing policymakers with a simple and compelling AI governance framework that situates AI principles as the guiding baseline for developing and evaluating policies. Rather than devising new policy recommendations, the most recent (at the time of writing) and comprehensive governance documents from China, the European Union, and the United States were systematically selected, and examined in a comparative analysis to study how the three regimes address AI principles. Based on the comparative analysis, the most comprehensive and effective recommendations were selected to produce seven broad policy recommendations. The governance framework and recommendations are intentionally broad so that they can be adapted to adequately address AI principles across diverse contexts, encouraging the implementation of AI principles, increasing the likelihood of beneficial AI, and reducing the risks and harms associated with the technology. Nevertheless, the recommendations provided should not be considered exhaustive as the technology has an immense reach and new AI governance initiatives are developing continuously in this growth period in AI governance. It is thus essential for policymakers to survey the most current and relevant governance landscape to identify the best practices that are suitable for their specific context and need.</t>
-  </si>
-  <si>
-    <t>A36</t>
   </si>
   <si>
     <t>Purpose
@@ -1960,9 +1849,6 @@
 To the best of the authors’ knowledge, there is no study on the impact of AI regulation and governance towards PDS and how it impacts on the security, privacy and trust of the online users.</t>
   </si>
   <si>
-    <t xml:space="preserve">A37 - Empirical </t>
-  </si>
-  <si>
     <t>The accelerating pace of emerging technologies such as AI has revealed a total mismatch between existing governmental approaches and what is needed for effective ethical/legal oversight. To address this “pacing gap” the authors proposed governance coordinating committees (GCCs) in 2015 as a new more agile approach for the coordinated oversight of emerging technologies. In this paper, we quickly reintroduce the reasons why AI and robotics require more agile govern- ance, and the potential role of the GCC model for meeting that need. Secondly, we flesh out the roles for government, engineering, and ethics in forcing a comprehensive approach to the oversight of AI/robotics mediated by a GCC. We argue for an international GCC with complementary regional bod- ies in light of the transnational nature of AI concerns and risks. We also propose a series of new mechanisms for en- forcing (directly or indirectly) “soft law” approaches for AI through coordinated institutional controls by insurers, journal publishers, grant funding agencies, courts and governments. The GCC is particularly well-adapted and situated for coor- dinating this type of enforcement of soft law requirements. Finally, we show how a GCC can support and reinforce the governance initiatives of organizations such as the IEEE, WEF, the Partnership in AI, and various AI research centers.</t>
   </si>
   <si>
@@ -1972,27 +1858,18 @@
     <t>Our study considers the governance, ethics and operational challenges associated with the acquisition, manipulation and commodification of ‘big data’ in the financial services sector. To the best of our knowledge, there are no published studies describing empirical research undertaken within companies in this sector to understand how they are responding to such challenges: our field-based research is a significant initial contribution in this respect. We describe the results of a microethnographic study undertaken in a small-to-medium-sized company developing disruptive, technology-related platforms and services in the banking and retail sectors based on big data and associated analytics: these are used to derive commercially valuable insights from personal customer data in exchange for cash back and targeted rewards. The company was found to employ a multi-level innovation governance approach, underpinned by an ethical strategy based on a principle of mutual benefit (among stakeholders). Opt-in and informed consent for using data for specific purposes was supported by principles of data minimisation and anonymisation, with unrestricted use of secondary, anonymised and aggregated data to develop insights. Governance, which included contextual data protection legislation, payment-card industry data usage standards and internal corporate controls, presented as bespoke organisational practices relating to data security and privacy. These in total set the governance and ethics frame for big data innovation at the company within which it has had to be both adaptive and responsive under conditions of normative and regulatory uncertainty.</t>
   </si>
   <si>
-    <t>A39</t>
-  </si>
-  <si>
     <t>Governing the adoption of robotics and autonomous systems in long-term care in Singapore</t>
   </si>
   <si>
     <t>Robotics and autonomous systems have been dubbed as viable technological solutions to address the incessant demand for long-term care (LTC) across the world, which is exacerbated by ageing populations. However, similar to other emerging technologies, the adoption of robotics and autonomous systems in LTC pose risks and unintended consequences. In the health and LTC sectors, there are additional bioethics concerns that are associated with novel technology applications. Using an in-depth case study, we examined the adoption of novel technologies such as robotics and autonomous systems in LTC to meet the rising social care demand in Singapore consequent to its ageing population. We first described the LTC sector in Singapore and traced the development of robotics and autonomous systems deployed in the LTC setting. We then examined technological risks and ethical issues that are associated with their applications. In addressing these technological risks and ethical concerns, Singapore has adopted a regulatory sandbox approach that fosters experimentation through the creation of a robotics test-bed and the initiation of various robotics pilots in different health clusters. The stakeholders largely envision positive scenarios of human-robot coexistence in the LTC setting. When robots can take over routine and manual care duties in the future, human care workers can be freed up to provide more personalised care to the care recipients. We also highlighted existing gaps in the governance of technological risks and ethical issues surrounding the deployment of robotics and autonomous systems in LTC that can be advanced as future research agendas.</t>
   </si>
   <si>
-    <t>A40</t>
-  </si>
-  <si>
     <t>Exploring governance tensions of disruptive technologies: the case of care robots in Australia and New Zealand</t>
   </si>
   <si>
     <t>Robots are increasingly appearing as a potential answer to the ‘care crisis’ facing a number of countries. Although it is anticipated that many positives will flow from the application of these technologies, they are also likely to generate unexpected consequences and risks. This paper explores the use of robots within disability and aged care settings in the Australian and New Zealand contexts. Informed by thirty-five semi-structured interviews with a range of stakeholders, the paper explores why this area is so difficult to govern examining areas identified as generating tensions around the use of robots in care settings. In each of these areas some respondents saw the introduction of robots to be relatively straightforward applications that do not require extensive structures of governance. Others, however, viewed these applications as having potentially greater implications and the need to govern for these over the longer term. The three areas of tension that we explore in this paper relate to independence and surveillance, the re-shaping of human interaction and who can care. These tensions illustrate some of the problems involved in governing robots in a care service context and some of the potentially difficult issues that governments will need to resolve if these technologies are to be effective. We conclude the paper arguing what is needed is a responsive regulation approach to help resolve some of the complexities and tensions in overseeing these technologies.</t>
   </si>
   <si>
-    <t>A41</t>
-  </si>
-  <si>
     <t>Ethical Implications of Artificial Intelligence in Population Health and the Public’s Role in Its Governance: Perspectives from a Citizen and Expert Panel</t>
   </si>
   <si>
@@ -2112,9 +1989,6 @@
     </r>
   </si>
   <si>
-    <t>A42</t>
-  </si>
-  <si>
     <t>Investigating accountability for Artificial Intelligence through risk governance: A workshop-based exploratory study</t>
   </si>
   <si>
@@ -2225,9 +2099,6 @@
     </r>
   </si>
   <si>
-    <t>A43</t>
-  </si>
-  <si>
     <t>What governs attitudes toward artificial intelligence adoption and governance?</t>
   </si>
   <si>
@@ -2357,9 +2228,6 @@
     </r>
   </si>
   <si>
-    <t>A44</t>
-  </si>
-  <si>
     <t>Toward AI Governance: Identifying Best Practices and Potential Barriers and Outcomes</t>
   </si>
   <si>
@@ -2429,9 +2297,6 @@
     </r>
   </si>
   <si>
-    <t>A45</t>
-  </si>
-  <si>
     <t>Governance of Clinical AI applications to facilitate safe and equitable deployment in a large health system: Key elements and early successes</t>
   </si>
   <si>
@@ -2560,9 +2425,6 @@
     </r>
   </si>
   <si>
-    <t>A46</t>
-  </si>
-  <si>
     <t>Governing Data and Artificial Intelligence for Health Care: Developing an International Understanding</t>
   </si>
   <si>
@@ -2769,9 +2631,6 @@
     </r>
   </si>
   <si>
-    <t>A47</t>
-  </si>
-  <si>
     <t>Mapping the challenges of Artificial Intelligence in the public sector: Evidence from public healthcare</t>
   </si>
   <si>
@@ -2790,9 +2649,6 @@
     </r>
   </si>
   <si>
-    <t>A48</t>
-  </si>
-  <si>
     <t>Commitments for Ethically Responsible Sourcing, Use, and Reuse of Patient Data in the Digital Age: Cocreation Process</t>
   </si>
   <si>
@@ -2942,34 +2798,22 @@
     </r>
   </si>
   <si>
-    <t>A49</t>
-  </si>
-  <si>
     <t>Challenges and best practices in corporate AI governance: Lessons from the biopharmaceutical industry</t>
   </si>
   <si>
     <t>While the use of artificial intelligence (AI) systems promises to bring significant economic and social benefits, it is also coupled with ethical, legal, and technical challenges. Business leaders thus face the question of how to best reap the benefits of automation whilst managing the associated risks. As a first step, many companies have committed themselves to various sets of ethics principles aimed at guiding the design and use of AI systems. So far so good. But how can well-intentioned ethical principles be translated into effective practice? And what challenges await companies that attempt to operationalize AI governance? In this article, we address these questions by drawing on our first-hand experience of shaping and driving the roll-out of AI governance within AstraZeneca, a biopharmaceutical company. The examples we discuss highlight challenges that any organization attempting to operationalize AI governance will have to face. These include questions concerning how to define the material scope of AI governance, how to harmonize standards across decentralized organizations, and how to measure the impact of specific AI governance initiatives. By showcasing how AstraZeneca managed these operational questions, we hope to provide project managers, CIOs, AI practitioners, and data privacy officers responsible for designing and implementing AI governance frameworks within other organizations with generalizable best practices. In essence, companies seeking to operationalize AI governance are encouraged to build on existing policies and governance structures, use pragmatic and action-oriented terminology, focus on risk management in development and procurement, and empower employees through continuous education and change management.</t>
   </si>
   <si>
-    <t>A50</t>
-  </si>
-  <si>
     <t>AI urbanism: a design framework for governance, program, and platform cognition</t>
   </si>
   <si>
     <t>Historically, the dynamic between philosophy of artificial intelligence and its practical application has been essential for the development of both, and thus the encounter between theory of AI and architectural/urban theory should be a site of considerable productivity. However, in many ways, it is not. This is due to two primary factors, one arising from each side of this encounter. First, legacies of overly-anthropomorphic models of AI permeate design discourses, where issues of how well AI can be constrained to social issues of philosophy of mind exclude more foundational and cross-cultural questions about artificial intelligence as material process in the physical world that could inform new philosophical insights. Concurrently, the mobilization of investment in “Smart Cities” discourses dominates the space of application of AI at urban scale in ways that prematurely fixes solutions in the skeuomorphic image of architectural and urban conventions. To break this impasse, we held a series of think-tanks, workshops, and design charettes that brought together leading figures in philosophy of artificial intelligence, urban design, and commercial AI platforms. The goal was to re-think from first principles how alternative philosophical models of AI as a distributed, discontinuous, landscape-scale technology in a direct encounter with the applications in contexts of ecological sensing, automation’s impact on urban form, and issues of algorithmic governance. The design brief for this research establishes a generative framework for conceiving how embedded machine sensing and intelligence is already changing urban form (but unrecognized) and could change it in the future (based on more appropriate design projections). The framework focuses on issues of urban zoning and architectural programming, data modeling and governance, platform cognition and design, and how these inform shifts in dynamics of public and private institutions.</t>
   </si>
   <si>
-    <t>A51</t>
-  </si>
-  <si>
     <t>Highlights on Program Governance through AI and Blockchain</t>
   </si>
   <si>
     <t>This research studies the effect of two of the main disruptive technologies – mainly AI and Blockchain – on program governance and management. He aim is to highlight the positive potentials for digital transformation in governance approaches and practices including roles and responsibilities. The research approach utilises quantitative and qualitative methods. The data collection and analysis methods used in the study are interviews, surveys, and document reviews. The research findings highlight the potential of conducting program governance without a centralised entity, could help avoid conflicts between organisations and maintain a single data source, centralisation of financial resources will be necessary in the future, improve governance efficiency and increase transparency.</t>
-  </si>
-  <si>
-    <t>A52</t>
   </si>
   <si>
     <t>AI GOVERNANCE: ARE CHIEF AI OFFICERS AND AI RISK
@@ -2979,9 +2823,6 @@
     <t>While AI provides many business opportunities across industries, the organizational implications of AI are still largely unclear. We investigate governance roles related to AI use in practice, and undertake first steps to define the role profiles of a Chief AI Officer (CAIO) and an AI Risk Officer (AIRO). We base our inquiry on two sources: a literature review and evaluative interviews with nine AI professionals
 from small- and medium-sized companies. We find that, whereas the roles and activities associated with the CAIO and AIRO are commonly deemed relevant for such companies in the long run, today only a few companies have implemented them. Especially the creation of the CAIO position seems justified, due to the complexity of AI and the need for extensive interaction and coordination related to AI
 governance.</t>
-  </si>
-  <si>
-    <t>A53</t>
   </si>
   <si>
     <t>Governance in Ethical and Trustworthy AI Systems: Extension of the ECCOLA Method for AI Ethics Governance Using GARP</t>
@@ -3000,95 +2841,245 @@
     <t>Can government govern artificial intelligence (AI)? One of the central questions of AI governance surrounds state capacity, namely whether government has the ability to accomplish its policy goals. We study this question by assessing how well the U.S. federal government has implemented three binding laws around AI governance: two executive orders - concerning trustworthy AI in the public sector (E.O. 13,960) and AI leadership (E.O. 13,859) - and the AI in Government Act. We conduct the first systematic empirical assessment of the implementation status of these three laws, which have each been described as central to US AI innovation. First, we track, through extensive research, line-level adoption of each mandated action. Based on publicly available information, we find that fewer than 40 percent of 45 legal requirements could be verified as having been implemented. Second, we research the specific implementation of transparency requirements at up to 220 federal agencies. We find that nearly half of agencies failed to publicly issue AI use case inventories - even when these agencies have demonstrable use cases of machine learning. Even when agencies have complied with these requirements, efforts are inconsistent. Our work highlights the weakness of U.S. state capacity to carry out AI governance mandates and we discuss implications for how to address bureaucratic capacity challenges.  © 2023 Owner/Author.</t>
   </si>
   <si>
-    <t>A55</t>
-  </si>
-  <si>
     <t>Exploring the impact of fairness of social bots on user experience</t>
   </si>
   <si>
     <t>There exists literary evidence that there is an established relationship between humanizing bots and customer perceptions of fairness and consequential user experience. This study seeks to evaluate factors that impact the perception surrounding the fairness of social bots and the impact of these factors on user experience. A qualitative approach was used to examine the fairness factors related to social bots and their impact on user experience with the help of data collected from 32 professionals with diverse backgrounds. The results obtained from manual coding and NVivo were assessed to evaluate the convergence of themes for the confluence of results and establish thematic validity. The findings revealed two major themes namely, artificial intelligence (AI) technology governance and AI technology outcome. This research furthers user experience literature and provides a theoretical framework delineating antecedents (AI technology governance and AI technology outcomes) of positive user experience while deploying AI-based social bots. © 2023 Elsevier Inc.</t>
   </si>
   <si>
-    <t>A56</t>
-  </si>
-  <si>
     <t>Governance of artificial intelligence applications in a business audit via a fusion fuzzy multiple rule-based decision-making model</t>
   </si>
   <si>
     <t>A broad range of companies around the world has welcomed artificial intelligence (AI) technology in daily practices because it provides decision-makers with comprehensive and intuitive messages about their operations and assists them in formulating appropriate strategies without any hysteresis. This research identifies the essential components of AI applications under an internal audit framework and provides an appropriate direction of strategies, which relate to setting up a priority on alternatives with multiple dimensions/criteria involvement that need to further consider the interconnected and intertwined relationships among them so as to reach a suitable judgment. To obtain this goal and inspired by a model ensemble, we introduce an innovative fuzzy multiple rule-based decision making framework that integrates soft computing, fuzzy set theory, and a multi-attribute decision making algorithm. The results display that the order of priority in improvement—(A) AI application strategy, (B) AI governance, (D) the human factor, and (C) data infrastructure and data quality—is based on the magnitude of their impact. This dynamically enhances the implementation of an AI-driven internal audit framework as well as responds to the strong rise of the big data environment. © 2023, Southwestern University of Finance and Economics.</t>
   </si>
   <si>
-    <t>A57</t>
-  </si>
-  <si>
     <t>Artificial intelligence and algorithmic decisions in fraud detection: An interpretive structural model</t>
   </si>
   <si>
     <t>The use of artificial intelligence and algorithmic decision-making in public policy processes is influenced by a range of diverse drivers. This article provides a comprehensive view of 13 drivers and their interrelationships, identified through empirical findings from the taxation and social security domains in Belgium. These drivers are organized into five hierarchical layers that policy designers need to focus on when introducing advanced analytics in fraud detection: (a) trust layer, (b) interoperability layer, (c) perceived benefits layer, (d) data governance layer, and (e) digital governance layer. The layered approach enables a holistic view of assessing adoption challenges concerning new digital technologies. The research uses thematic analysis and interpretive structural modeling.  © 2023 The Author(s).</t>
   </si>
   <si>
-    <t>A58</t>
-  </si>
-  <si>
     <t>The Global Governance of Artificial Intelligence: Next Steps for Empirical and Normative Research</t>
   </si>
   <si>
     <t>Artificial intelligence (AI) represents a technological upheaval with the potential to change human society. Because of its transformative potential, AI is increasingly becoming subject to regulatory initiatives at the global level. Yet, so far, scholarship in political science and international relations has focused more on AI applications than on the emerging architecture of global AI regulation. The purpose of this article is to outline an agenda for research into the global governance of AI. The article distinguishes between two broad perspectives: an empirical approach, aimed at mapping and explaining global AI governance; and a normative approach, aimed at developing and applying standards for appropriate global AI governance. The two approaches offer questions, concepts, and theories that are helpful in gaining an understanding of the emerging global governance of AI. Conversely, exploring AI as a regulatory issue offers a critical opportunity to refine existing general approaches to the study of global governance. © 2023 The Author(s).</t>
   </si>
   <si>
-    <t>A59</t>
-  </si>
-  <si>
     <t>The influence of China in AI governance through standardisation</t>
   </si>
   <si>
     <t>Artificial intelligence systems (AIS) are subject to technical standardisation. Technical standards are primarily developed within standard developing organisations (SDOs) traditionally operating under consensus-based, community- and largely industry-driven processes. Governments are increasingly interested in technical standards’ development, accentuating the political dimension of standardisation. This article explores the contribution of technical standardisation to the governance of artificial intelligence (AI) and asks whose views are being implemented in the development of non-state rules for AI. The article, based on empirical research, focuses on the changing governance structure of the International Telecommunications Union (ITU). Overall, the discussion offers an overview of the existing geopolitics in AI-related standardisation and contributes to the scholarship on AI and digital governance by exploring the role of technical standardisation as a tool in AI governance. The research finds an increasing Chinese representation in international standardisation and argues that the political use of standardisation can lead to China establishing its own vision of digital governance. Consequently, the article suggest that China is using participation in recognised SDOs to legitimate its vision for digital governance calling for a re-examination of standardisation considering its implications for democracy and the protection of human rights. © 2023 Elsevier Ltd</t>
   </si>
   <si>
-    <t>A60</t>
-  </si>
-  <si>
     <t>Trustworthy AI Governance - Panel Discussion</t>
   </si>
   <si>
     <t>As AI technology becomes more powerful, the impact on governance and the governance of AI becomes more important. The purpose of this panel is to bring together experts on Trustworthy AI and E-Governance to discuss the lessons learned so far and the challenges ahead. The goal is to provide a comprehensive review of challenges and potential solutions related to the future acceptance and beneficial application of AI-based solutions - including using AI for public benefit and applying AI for the common good. © 2023 CEUR-WS. All rights reserved.</t>
   </si>
   <si>
-    <t>A61</t>
-  </si>
-  <si>
     <t>Artificial intelligence technology, public trust, and effective governance</t>
   </si>
   <si>
     <t>Advancement in information technology continues to evolve especially in the field of artificial intelligence (AI). Research studies have been conducted to evaluate the perceptions of Americans on the development and utilization of AI technology and if it is appropriate to use AI in public administrative duties. The research revealed that society is fragmented regarding the acceptance of AI, and whether AI decisions could have long-term effects on the labor industry, legal system, and national security. The 2018 AI Public Opinion Survey revealed significant concerns among the American public regarding AI, yet also a recognition of its promise. The goal of this article is to further develop a governance framework for AI that considers the importance of public trust in AI policy. First, it discusses the necessity of public trust for the effective governance of emergent technology. Then, it evaluates public opinion on AI technology that specifically pertains to governance. The article concludes with a discussion of why public trust is central to good AI governance. © 2023 The Authors. Review of Policy Research published by Wiley Periodicals LLC on behalf of Policy Studies Organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">Empirical-E/Non-Empirical-NE </t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>An Agile Ethical/Legal Model for the International and National Governance of AI and Robotics</t>
   </si>
   <si>
     <t xml:space="preserve">Impact of AI regulation and governance on online personal data sharing: from sociolegal, technology and policy perspective </t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A38 </t>
-  </si>
-  <si>
-    <t>A54</t>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>N17</t>
+  </si>
+  <si>
+    <t>N18</t>
+  </si>
+  <si>
+    <t>N19</t>
+  </si>
+  <si>
+    <t>N20</t>
+  </si>
+  <si>
+    <t>N21</t>
+  </si>
+  <si>
+    <t>N22</t>
+  </si>
+  <si>
+    <t>N23</t>
+  </si>
+  <si>
+    <t>N24</t>
+  </si>
+  <si>
+    <t>N25</t>
+  </si>
+  <si>
+    <t>N26</t>
+  </si>
+  <si>
+    <t>N27</t>
+  </si>
+  <si>
+    <t>N28</t>
+  </si>
+  <si>
+    <t>N29</t>
+  </si>
+  <si>
+    <t>N30</t>
+  </si>
+  <si>
+    <t>N31</t>
+  </si>
+  <si>
+    <t>N32</t>
+  </si>
+  <si>
+    <t>N33</t>
+  </si>
+  <si>
+    <t>N34</t>
+  </si>
+  <si>
+    <t>N35</t>
+  </si>
+  <si>
+    <t>N36</t>
+  </si>
+  <si>
+    <t>E37</t>
+  </si>
+  <si>
+    <t>E38</t>
+  </si>
+  <si>
+    <t>E39</t>
+  </si>
+  <si>
+    <t>E40</t>
+  </si>
+  <si>
+    <t>E41</t>
+  </si>
+  <si>
+    <t>E42</t>
+  </si>
+  <si>
+    <t>E43</t>
+  </si>
+  <si>
+    <t>E44</t>
+  </si>
+  <si>
+    <t>E45</t>
+  </si>
+  <si>
+    <t>E46</t>
+  </si>
+  <si>
+    <t>E47</t>
+  </si>
+  <si>
+    <t>E48</t>
+  </si>
+  <si>
+    <t>E49</t>
+  </si>
+  <si>
+    <t>E50</t>
+  </si>
+  <si>
+    <t>E51</t>
+  </si>
+  <si>
+    <t>E52</t>
+  </si>
+  <si>
+    <t>E53</t>
+  </si>
+  <si>
+    <t>N54</t>
+  </si>
+  <si>
+    <t>E55</t>
+  </si>
+  <si>
+    <t>N56</t>
+  </si>
+  <si>
+    <t>E57</t>
+  </si>
+  <si>
+    <t>N58</t>
+  </si>
+  <si>
+    <t>N59</t>
+  </si>
+  <si>
+    <t>N60</t>
+  </si>
+  <si>
+    <t>N61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper-ID: Empirical-E/Non-Empirical-N </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3197,6 +3188,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3246,10 +3243,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3257,65 +3305,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3632,453 +3626,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE5FA0B-3435-944D-9100-18082679C45B}">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:BN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="143.1640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="153.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="175" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12">
+      <c r="D3" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="223" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="310" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="265" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8">
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="280" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12">
+    <row r="9" spans="1:4" ht="310" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="223" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="12">
+    <row r="10" spans="1:4" ht="371" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="310" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="12">
+    <row r="12" spans="1:4" ht="291" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="285" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="263" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="318" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="319" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="299" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="146" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="235" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="242" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="2" customFormat="1" ht="290" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="265" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="310" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="371" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="233" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="285" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="263" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="318" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="319" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="299" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="227" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="146" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="235" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" ht="290" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="14">
-        <v>2020</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="2"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="21"/>
+      <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
@@ -4086,31 +4005,28 @@
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25"/>
-    </row>
-    <row r="26" spans="1:20" s="4" customFormat="1" ht="310" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="14">
+    </row>
+    <row r="26" spans="1:19" s="2" customFormat="1" ht="310" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10">
         <v>2019</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -4118,31 +4034,28 @@
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
-      <c r="T26"/>
-    </row>
-    <row r="27" spans="1:20" s="4" customFormat="1" ht="267" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="14">
+    </row>
+    <row r="27" spans="1:19" s="2" customFormat="1" ht="267" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="10">
         <v>2020</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="23"/>
+      <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -4150,31 +4063,28 @@
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
-      <c r="T27"/>
-    </row>
-    <row r="28" spans="1:20" s="4" customFormat="1" ht="302" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="14">
+    </row>
+    <row r="28" spans="1:19" s="2" customFormat="1" ht="302" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="10">
         <v>2020</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -4182,31 +4092,28 @@
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
-      <c r="T28"/>
-    </row>
-    <row r="29" spans="1:20" s="4" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="14">
+    </row>
+    <row r="29" spans="1:19" s="2" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="10">
         <v>2021</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="5"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="23"/>
+      <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
@@ -4214,24 +4121,21 @@
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
-      <c r="T29"/>
-    </row>
-    <row r="30" spans="1:20" s="4" customFormat="1" ht="209" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="14">
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="10">
         <v>2022</v>
       </c>
+      <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
@@ -4246,24 +4150,21 @@
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
-      <c r="T30"/>
-    </row>
-    <row r="31" spans="1:20" s="4" customFormat="1" ht="248" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="14">
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" ht="248" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10">
         <v>2022</v>
       </c>
+      <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
@@ -4278,541 +4179,510 @@
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
-      <c r="T31"/>
-    </row>
-    <row r="32" spans="1:20" ht="248" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    </row>
+    <row r="32" spans="1:19" ht="248" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:66" ht="248" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:66" ht="248" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:66" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:66" ht="347" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:66" ht="347" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:66" ht="327" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:66" s="3" customFormat="1" ht="340" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39"/>
+      <c r="AY39"/>
+      <c r="AZ39"/>
+      <c r="BA39"/>
+      <c r="BB39"/>
+      <c r="BC39"/>
+      <c r="BD39"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+      <c r="BK39"/>
+      <c r="BL39"/>
+      <c r="BM39"/>
+      <c r="BN39"/>
+    </row>
+    <row r="40" spans="1:66" ht="324" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:66" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:66" ht="382" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:66" ht="301" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:66" ht="235" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:66" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:66" ht="355" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:66" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:66" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="D48" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="267" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="359" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="146" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="15">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="248" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="15">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="248" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="15">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="347" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="15">
+      <c r="B61" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="12">
         <v>2023</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="347" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="15">
+    <row r="62" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="12">
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="327" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="16">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="340" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="16">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="16">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="306" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="18">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="382" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="19">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="301" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="19">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="235" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="19">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="19">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="355" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="19">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="19">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="19">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="19">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="267" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="306" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="15">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="18">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="359" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" s="15">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="15">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" s="15">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="178" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" s="16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="8" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E62" s="16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="21"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
